--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -670,7 +670,7 @@
         <v>1.26</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
@@ -682,7 +682,7 @@
         <v>5.8</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -706,7 +706,7 @@
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T2" t="n">
         <v>2.1</v>
@@ -715,13 +715,13 @@
         <v>1.76</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,22 +733,22 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AF2" t="n">
         <v>8.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="G2" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
@@ -706,7 +706,7 @@
         <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T2" t="n">
         <v>2.1</v>
@@ -718,7 +718,7 @@
         <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>15.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>7</v>
@@ -700,7 +700,7 @@
         <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R2" t="n">
         <v>1.57</v>
@@ -712,13 +712,13 @@
         <v>2.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
         <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
@@ -745,7 +745,7 @@
         <v>270</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG2" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -670,7 +670,7 @@
         <v>1.28</v>
       </c>
       <c r="G2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
@@ -718,7 +718,7 @@
         <v>1.07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,531 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.28</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Botafogo FR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.03</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N3" t="n">
         <v>5.1</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="O3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.42</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>1.61</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R3" t="n">
         <v>1.57</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>2.56</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T3" t="n">
         <v>2.1</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U3" t="n">
         <v>1.75</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V3" t="n">
         <v>1.07</v>
       </c>
-      <c r="W2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="W3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X3" t="n">
         <v>26</v>
       </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
         <v>160</v>
       </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
         <v>9.6</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC3" t="n">
         <v>15</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
         <v>270</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF3" t="n">
         <v>8.4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG3" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AH3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI3" t="n">
         <v>200</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ3" t="n">
         <v>10.5</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK3" t="n">
         <v>15</v>
       </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
         <v>220</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN3" t="n">
         <v>4.8</v>
       </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
+      <c r="AO3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chilean Primera B</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CSD Rangers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fortaleza FC</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,7 +709,7 @@
         <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U2" t="n">
         <v>1.69</v>
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -844,7 +844,7 @@
         <v>2.56</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
         <v>1.75</v>
@@ -886,7 +886,7 @@
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
         <v>200</v>
@@ -943,28 +943,28 @@
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.91</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
         <v>1.6</v>
@@ -973,76 +973,76 @@
         <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
@@ -1090,16 +1090,16 @@
         <v>3.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
         <v>1.66</v>
@@ -1108,75 +1108,885 @@
         <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO5" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>310</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="X8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Curacao</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>16</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -673,16 +673,16 @@
         <v>2.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -709,13 +709,13 @@
         <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W2" t="n">
         <v>1.61</v>
@@ -811,10 +811,10 @@
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
         <v>7</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -886,7 +886,7 @@
         <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>200</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -946,7 +946,7 @@
         <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
         <v>1.9</v>
@@ -994,10 +994,10 @@
         <v>16</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>30</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1084,10 +1084,10 @@
         <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,16 +1096,16 @@
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
@@ -1114,16 +1114,16 @@
         <v>4.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
         <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X5" t="n">
         <v>11.5</v>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1162,7 +1162,7 @@
         <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
@@ -1213,22 +1213,22 @@
         <v>1.24</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
         <v>4.7</v>
@@ -1240,16 +1240,16 @@
         <v>2.26</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.51</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U6" t="n">
         <v>1.52</v>
@@ -1267,7 +1267,7 @@
         <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1279,7 +1279,7 @@
         <v>18.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1294,7 +1294,7 @@
         <v>60</v>
       </c>
       <c r="AI6" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AJ6" t="n">
         <v>8.6</v>
@@ -1306,7 +1306,7 @@
         <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AN6" t="n">
         <v>4.5</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
         <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1402,40 +1402,40 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
         <v>310</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>240</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1444,10 +1444,10 @@
         <v>270</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>4.6</v>
@@ -1489,7 +1489,7 @@
         <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.95</v>
@@ -1513,7 +1513,7 @@
         <v>2.12</v>
       </c>
       <c r="R8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S8" t="n">
         <v>3.9</v>
@@ -1528,7 +1528,7 @@
         <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1540,7 +1540,7 @@
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
@@ -1549,10 +1549,10 @@
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
         <v>11.5</v>
@@ -1564,13 +1564,13 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
         <v>980</v>
@@ -1582,7 +1582,7 @@
         <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
         <v>3.45</v>
@@ -1633,19 +1633,19 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
         <v>1.45</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
@@ -1654,67 +1654,67 @@
         <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.84</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.78</v>
-      </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>90</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.18</v>
@@ -1771,34 +1771,34 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U10" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="X10" t="n">
         <v>70</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
@@ -1825,10 +1825,10 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>100</v>
@@ -1840,10 +1840,10 @@
         <v>9.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
         <v>2.54</v>
@@ -1915,7 +1915,7 @@
         <v>1.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.94</v>
       </c>
-      <c r="R2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="G3" t="n">
         <v>1.31</v>
@@ -811,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J3" t="n">
         <v>6.2</v>
@@ -826,7 +826,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,7 +835,7 @@
         <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="R3" t="n">
         <v>1.57</v>
@@ -880,7 +880,7 @@
         <v>270</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
         <v>11.5</v>
@@ -1030,7 +1030,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>60</v>
@@ -1216,10 +1216,10 @@
         <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
         <v>7.8</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
         <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K7" t="n">
         <v>6.6</v>
@@ -1369,10 +1369,10 @@
         <v>4.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>1.72</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
         <v>310</v>
@@ -1435,7 +1435,7 @@
         <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>60</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.49</v>
@@ -1519,16 +1519,16 @@
         <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X8" t="n">
         <v>14.5</v>
@@ -1549,7 +1549,7 @@
         <v>8.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>80</v>
@@ -1564,10 +1564,10 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>23</v>
@@ -1579,7 +1579,7 @@
         <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>120</v>
@@ -1666,7 +1666,7 @@
         <v>1.84</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1750,16 +1750,16 @@
         <v>1.09</v>
       </c>
       <c r="G10" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="K10" t="n">
         <v>16.5</v>
@@ -1771,85 +1771,85 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P10" t="n">
         <v>3.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="T10" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="U10" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="V10" t="n">
         <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X10" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>170</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
         <v>70</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
-      </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>2.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO11"/>
+  <dimension ref="A1:AO12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="H2" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.31</v>
       </c>
-      <c r="H3" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.07</v>
-      </c>
       <c r="W3" t="n">
-        <v>4.2</v>
+        <v>1.65</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
         <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,118 +928,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.64</v>
       </c>
-      <c r="G4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
         <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>12.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.24</v>
       </c>
-      <c r="H6" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
         <v>26</v>
       </c>
-      <c r="J6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>270</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="n">
         <v>60</v>
       </c>
-      <c r="AI6" t="n">
-        <v>410</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>75</v>
-      </c>
       <c r="AM6" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
@@ -1333,121 +1333,121 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>530</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>530</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4.2</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AO7" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>14.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="S8" t="n">
-        <v>3.9</v>
+        <v>2.84</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AF8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="n">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>6.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.84</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.23</v>
       </c>
-      <c r="S9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.09</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.11</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>30</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>5.3</v>
       </c>
       <c r="J10" t="n">
-        <v>13.5</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>16.5</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
-        <v>1.18</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
-        <v>1.09</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>3.7</v>
+        <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.29</v>
+        <v>2.3</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>1.74</v>
+        <v>4.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="W10" t="n">
-        <v>9.800000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="X10" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>170</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH10" t="n">
         <v>980</v>
       </c>
-      <c r="AD10" t="n">
-        <v>160</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>80</v>
-      </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.199999999999999</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.4</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -1873,120 +1873,255 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Suriname</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="F12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO12"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>FK Dubocica</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.9</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>2.44</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>7.4</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,85 +691,85 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="S2" t="n">
-        <v>2.38</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.01</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,72 +788,72 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Catalonia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,126 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>2.06</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>2.26</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>15.5</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>6.6</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>4.3</v>
+        <v>1.79</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.6</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>1.94</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1.27</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>4.4</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>4.7</v>
       </c>
       <c r="AO6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.17</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="W7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="n">
         <v>19</v>
       </c>
-      <c r="I7" t="n">
-        <v>32</v>
-      </c>
-      <c r="J7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>70</v>
-      </c>
       <c r="Z7" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>19</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.3</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>1.35</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>12</v>
       </c>
-      <c r="I8" t="n">
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="n">
         <v>14.5</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X8" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.6</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>500</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>1.97</v>
+        <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>5.4</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.72</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>480</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>460</v>
+      </c>
+      <c r="AN9" t="n">
         <v>3.9</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="X9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>1.33</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>13.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.84</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="T10" t="n">
         <v>2.3</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF10" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
       <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>24</v>
-      </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.09</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>1.12</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>29</v>
+        <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>17</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.49</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.29</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="S11" t="n">
-        <v>1.74</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="W11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="X11" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>38</v>
-      </c>
       <c r="AD11" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.38</v>
+        <v>18.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2008,120 +2008,390 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>1.98</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P12" t="n">
         <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H13" t="n">
+        <v>36</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>170</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>460</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>2.42</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>1.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>1.23</v>
+        <v>1.56</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.75</v>
@@ -976,31 +976,31 @@
         <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1009,10 +1009,10 @@
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF4" t="n">
         <v>16</v>
@@ -1027,22 +1027,22 @@
         <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN4" t="n">
         <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1075,10 +1075,10 @@
         <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="I5" t="n">
         <v>4.6</v>
@@ -1087,7 +1087,7 @@
         <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
@@ -1123,58 +1123,58 @@
         <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>1.27</v>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
@@ -1231,37 +1231,37 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
         <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
         <v>44</v>
@@ -1279,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="AE6" t="n">
         <v>290</v>
@@ -1291,13 +1291,13 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1309,7 +1309,7 @@
         <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1390,13 +1390,13 @@
         <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>2.06</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>19</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
@@ -1438,7 +1438,7 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
@@ -1489,10 +1489,10 @@
         <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,7 +1501,7 @@
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1.42</v>
@@ -1528,7 +1528,7 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="X8" t="n">
         <v>12.5</v>
@@ -1537,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
         <v>85</v>
@@ -1552,7 +1552,7 @@
         <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AF8" t="n">
         <v>14.5</v>
@@ -1564,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
@@ -1573,16 +1573,16 @@
         <v>32</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -1624,13 +1624,13 @@
         <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1639,13 +1639,13 @@
         <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
         <v>1.58</v>
@@ -1663,7 +1663,7 @@
         <v>1.03</v>
       </c>
       <c r="W9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>28</v>
@@ -1672,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
         <v>480</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.31</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.33</v>
       </c>
       <c r="H10" t="n">
         <v>13.5</v>
@@ -1759,10 +1759,10 @@
         <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.34</v>
@@ -1771,25 +1771,25 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
         <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
@@ -1798,13 +1798,13 @@
         <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X10" t="n">
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>180</v>
@@ -1819,37 +1819,37 @@
         <v>17.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>280</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM10" t="n">
         <v>330</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
         <v>1.95</v>
@@ -1891,7 +1891,7 @@
         <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
@@ -1906,19 +1906,19 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
         <v>3.9</v>
@@ -1948,19 +1948,19 @@
         <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
@@ -1969,22 +1969,22 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
         <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO11" t="n">
         <v>130</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G12" t="n">
         <v>2.08</v>
@@ -2026,13 +2026,13 @@
         <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -2041,25 +2041,25 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U12" t="n">
         <v>1.84</v>
@@ -2071,7 +2071,7 @@
         <v>1.92</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2083,7 +2083,7 @@
         <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2107,7 +2107,7 @@
         <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2119,7 +2119,7 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,19 +2155,19 @@
         <v>1.08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="K13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
         <v>1.18</v>
@@ -2185,31 +2185,31 @@
         <v>3.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="V13" t="n">
         <v>1.02</v>
       </c>
       <c r="W13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2224,13 +2224,13 @@
         <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
         <v>21</v>
@@ -2245,13 +2245,13 @@
         <v>8</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AN13" t="n">
         <v>2.34</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="Q14" t="n">
         <v>2.06</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>3.55</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>44</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.1</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -811,13 +811,13 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>50</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -829,19 +829,19 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.24</v>
       </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -943,7 +943,7 @@
         <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>3.55</v>
@@ -1000,7 +1000,7 @@
         <v>90</v>
       </c>
       <c r="AA4" t="n">
-        <v>900</v>
+        <v>470</v>
       </c>
       <c r="AB4" t="n">
         <v>12.5</v>
@@ -1012,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="n">
         <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1030,7 +1030,7 @@
         <v>120</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
@@ -1039,10 +1039,10 @@
         <v>330</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>2.12</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.15</v>
@@ -1090,28 +1090,28 @@
         <v>3.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
         <v>1.84</v>
@@ -1120,55 +1120,55 @@
         <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>140</v>
@@ -1177,7 +1177,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -1210,109 +1210,109 @@
         <v>1.27</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.32</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="U6" t="n">
         <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="n">
         <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7">
@@ -1342,100 +1342,100 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.26</v>
       </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W7" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
         <v>19</v>
       </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>27</v>
-      </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>28</v>
       </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>24</v>
-      </c>
       <c r="AK7" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
         <v>130</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -1492,31 +1492,31 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.09</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T8" t="n">
         <v>1.94</v>
@@ -1528,40 +1528,40 @@
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AF8" t="n">
         <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>380</v>
@@ -1570,7 +1570,7 @@
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
         <v>300</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>300</v>
@@ -1621,7 +1621,7 @@
         <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
         <v>8.199999999999999</v>
@@ -1633,7 +1633,7 @@
         <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>5.1</v>
@@ -1642,22 +1642,22 @@
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="S9" t="n">
         <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="U9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="V9" t="n">
         <v>1.03</v>
@@ -1666,13 +1666,13 @@
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,13 +1684,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1702,7 +1702,7 @@
         <v>480</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK9" t="n">
         <v>16.5</v>
@@ -1711,10 +1711,10 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
         <v>17</v>
@@ -1765,28 +1765,28 @@
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.24</v>
       </c>
       <c r="P10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
         <v>2.36</v>
@@ -1801,22 +1801,22 @@
         <v>4.2</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD10" t="n">
         <v>55</v>
@@ -1825,7 +1825,7 @@
         <v>380</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1837,19 +1837,19 @@
         <v>280</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
@@ -1897,7 +1897,7 @@
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1921,7 +1921,7 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
         <v>1.96</v>
@@ -1930,28 +1930,28 @@
         <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>160</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
@@ -1960,16 +1960,16 @@
         <v>80</v>
       </c>
       <c r="AF11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>22</v>
@@ -1978,10 +1978,10 @@
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN11" t="n">
         <v>16</v>
@@ -2020,7 +2020,7 @@
         <v>1.97</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
@@ -2032,7 +2032,7 @@
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
@@ -2041,7 +2041,7 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
@@ -2050,7 +2050,7 @@
         <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2059,19 +2059,19 @@
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2083,7 +2083,7 @@
         <v>980</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
         <v>8</v>
@@ -2104,10 +2104,10 @@
         <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
         <v>25</v>
@@ -2119,10 +2119,10 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G13" t="n">
         <v>1.1</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J13" t="n">
         <v>15.5</v>
@@ -2176,13 +2176,13 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.1</v>
       </c>
       <c r="P13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q13" t="n">
         <v>1.31</v>
@@ -2191,13 +2191,13 @@
         <v>2.08</v>
       </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="T13" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="U13" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="V13" t="n">
         <v>1.02</v>
@@ -2209,7 +2209,7 @@
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,22 +2218,22 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
         <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,19 +2242,19 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2293,10 +2293,10 @@
         <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I14" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="G2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.8</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V2" t="n">
-        <v>1.71</v>
+        <v>1.41</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -940,10 +940,10 @@
         <v>2.12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>3.55</v>
@@ -955,40 +955,40 @@
         <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V4" t="n">
         <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X4" t="n">
         <v>21</v>
@@ -1009,7 +1009,7 @@
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
         <v>110</v>
@@ -1018,13 +1018,13 @@
         <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="n">
         <v>120</v>
@@ -1036,13 +1036,13 @@
         <v>80</v>
       </c>
       <c r="AM4" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
         <v>2.12</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T5" t="n">
         <v>1.84</v>
@@ -1120,37 +1120,37 @@
         <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>11.5</v>
@@ -1162,22 +1162,22 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="T6" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>450</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
         <v>3.15</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.24</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
         <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1411,10 +1411,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1429,10 +1429,10 @@
         <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK7" t="n">
         <v>65</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>4.1</v>
@@ -1492,67 +1492,67 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M8" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P8" t="n">
         <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
         <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
         <v>14.5</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="G9" t="n">
         <v>1.2</v>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
         <v>2.62</v>
@@ -1660,37 +1660,37 @@
         <v>1.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z9" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AG9" t="n">
         <v>14.5</v>
@@ -1702,19 +1702,19 @@
         <v>480</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AK9" t="n">
         <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H10" t="n">
         <v>14</v>
@@ -1759,7 +1759,7 @@
         <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>6.4</v>
@@ -1771,31 +1771,31 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="V10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W10" t="n">
         <v>4.2</v>
@@ -1807,7 +1807,7 @@
         <v>980</v>
       </c>
       <c r="Z10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1816,13 +1816,13 @@
         <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD10" t="n">
         <v>55</v>
       </c>
       <c r="AE10" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF10" t="n">
         <v>7.6</v>
@@ -1834,22 +1834,22 @@
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.6</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
         <v>980</v>
       </c>
       <c r="AM10" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
         <v>4.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.49</v>
@@ -1906,13 +1906,13 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1921,46 +1921,46 @@
         <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
         <v>15</v>
       </c>
-      <c r="Y11" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,25 +1969,25 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2017,40 +2017,40 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
         <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
         <v>1.42</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
         <v>1.25</v>
@@ -2059,19 +2059,19 @@
         <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
         <v>14</v>
@@ -2080,22 +2080,22 @@
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
         <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE12" t="n">
         <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2119,10 +2119,10 @@
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2152,88 +2152,88 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="G13" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H13" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J13" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="K13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="S13" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="V13" t="n">
         <v>1.02</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,19 +2242,19 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J14" t="n">
         <v>3.55</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>FIFA World Cup Qualifiers - Asia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Dubocica</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>UAE</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>2.86</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="N2" t="n">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="S2" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="U2" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,117 +788,117 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Catalonia</t>
+          <t>FK Dubocica</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>2.64</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>50</v>
+        <v>3.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Catalonia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>100</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.04</v>
       </c>
-      <c r="N4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.36</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>470</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
         <v>2.18</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>1.76</v>
+        <v>2.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="S5" t="n">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AA5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
         <v>200</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.28</v>
       </c>
-      <c r="H6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AB6" t="n">
         <v>9</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.5</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="G7" t="n">
-        <v>2.22</v>
+        <v>1.27</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>24</v>
-      </c>
       <c r="AO7" t="n">
-        <v>100</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P8" t="n">
         <v>1.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AA8" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>65</v>
       </c>
-      <c r="AF8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>34</v>
-      </c>
       <c r="AK8" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.19</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>1.2</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH9" t="n">
         <v>21</v>
       </c>
-      <c r="I9" t="n">
-        <v>26</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>70</v>
-      </c>
       <c r="AI9" t="n">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="AM9" t="n">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1738,118 +1738,118 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W10" t="n">
         <v>6</v>
       </c>
-      <c r="K10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.2</v>
-      </c>
       <c r="X10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>290</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC10" t="n">
         <v>22</v>
       </c>
-      <c r="Y10" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AD10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>370</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>270</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.3</v>
+        <v>3.95</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>1.27</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
-        <v>4.8</v>
+        <v>13.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="S11" t="n">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="T11" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="V11" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AA11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>15.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,97 +2008,97 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AB12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>23</v>
@@ -2107,22 +2107,22 @@
         <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>160</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Trinidad &amp; Tobago</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.09</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>1.13</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X13" t="n">
         <v>11.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>18</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y13" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>400</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.6</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.8</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -2278,120 +2278,255 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Trinidad &amp; Tobago</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bermuda</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H14" t="n">
+        <v>32</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="X14" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>140</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>460</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>510</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FIFA World Cup Qualifiers - Americas</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Suriname</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>2.06</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="I15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.75</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO15"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIFA World Cup Qualifiers - Asia</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Catalonia</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>UAE</t>
+          <t>Palestine</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>980</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>3.65</v>
+        <v>870</v>
       </c>
       <c r="J2" t="n">
-        <v>2.86</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.18</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.13</v>
-      </c>
       <c r="S2" t="n">
-        <v>7.8</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Dubocica</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="G3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.46</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.64</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K3" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.49</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.21</v>
-      </c>
       <c r="S3" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Catalonia</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="G5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.18</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.36</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.86</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>9.6</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AA6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD6" t="n">
         <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>1.27</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>16.5</v>
+        <v>3.9</v>
       </c>
       <c r="J7" t="n">
-        <v>6.6</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.2</v>
       </c>
-      <c r="L7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X7" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>930</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>390</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.08</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
-        <v>2.24</v>
+        <v>1.19</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>24</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>32</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>9.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>2.96</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>1.66</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="R8" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="S8" t="n">
-        <v>4.2</v>
+        <v>2.56</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="W8" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="Z8" t="n">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>7.8</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>3.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.28</v>
       </c>
-      <c r="G9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W9" t="n">
         <v>4.1</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="AA9" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
         <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AE9" t="n">
-        <v>380</v>
+        <v>320</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>380</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>15.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>300</v>
+        <v>980</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>5.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.19</v>
+        <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD10" t="n">
         <v>21</v>
       </c>
-      <c r="I10" t="n">
-        <v>26</v>
-      </c>
-      <c r="J10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>290</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AE10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK10" t="n">
         <v>22</v>
       </c>
-      <c r="AD10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>430</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.95</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.27</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
-        <v>13.5</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="O11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.24</v>
       </c>
-      <c r="P11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.06</v>
-      </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>330</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>240</v>
+        <v>960</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>50</v>
       </c>
       <c r="AM11" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.3</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.13</v>
       </c>
       <c r="G12" t="n">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I12" t="n">
-        <v>5.4</v>
+        <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>11</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.16</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>2.36</v>
       </c>
       <c r="U12" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>1.23</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.5</v>
+        <v>120</v>
       </c>
       <c r="Z12" t="n">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="AA12" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AE12" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="AI12" t="n">
-        <v>90</v>
+        <v>420</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>2.78</v>
       </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,390 +2143,120 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>2.26</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Trinidad &amp; Tobago</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="H14" t="n">
-        <v>32</v>
-      </c>
-      <c r="I14" t="n">
-        <v>44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X14" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>460</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>510</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-11-18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Catalonia</t>
+          <t>Botafogo FR</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>980</v>
+        <v>1.21</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>870</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>2.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="S2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.05</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>CSD Rangers</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.1</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J3" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S3" t="n">
         <v>5</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.8</v>
-      </c>
       <c r="T3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.63</v>
       </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>65</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>38</v>
+        <v>990</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Fortaleza FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>27</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN4" t="n">
         <v>40</v>
       </c>
-      <c r="AM4" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>55</v>
-      </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botafogo FR</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="G5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.26</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.28</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="T5" t="n">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="AA5" t="n">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AE5" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AI5" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CSD Rangers</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>San Marcos</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.14</v>
+        <v>1.23</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>15.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.3</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.93</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.61</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="Z6" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>65</v>
-      </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>4.6</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>FIFA World Cup Qualifiers - Americas</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fortaleza FC</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>1.77</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>2.28</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
         <v>12</v>
       </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>32</v>
-      </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.19</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
-        <v>24</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z8" t="n">
         <v>32</v>
       </c>
-      <c r="J8" t="n">
-        <v>8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>360</v>
-      </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>24</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>120</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>550</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Trinidad &amp; Tobago</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.28</v>
+        <v>1.11</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="H9" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4.5</v>
+        <v>8.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="P9" t="n">
-        <v>2.18</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>1.47</v>
+        <v>2.16</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="W9" t="n">
-        <v>4.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="Z9" t="n">
-        <v>180</v>
+        <v>490</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="AD9" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AE9" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>510</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.2</v>
+        <v>2.52</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1738,526 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.3</v>
+        <v>2.26</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.79</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z10" t="n">
         <v>13</v>
       </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>38</v>
-      </c>
       <c r="AA10" t="n">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>80</v>
       </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AM10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Curacao</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>960</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Trinidad &amp; Tobago</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Bermuda</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>11</v>
-      </c>
-      <c r="K12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W12" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>370</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>FIFA World Cup Qualifiers - Americas</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
